--- a/src/result.xlsx
+++ b/src/result.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="3040" yWindow="0" windowWidth="25000" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,14 +36,37 @@
     <t xml:space="preserve"> T</t>
   </si>
   <si>
-    <t>Log(n)</t>
+    <r>
+      <t>Log</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +92,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,11 +333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128001304"/>
-        <c:axId val="-2127995848"/>
+        <c:axId val="-2131068136"/>
+        <c:axId val="-2091385976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128001304"/>
+        <c:axId val="-2131068136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +390,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127995848"/>
+        <c:crossAx val="-2091385976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -364,7 +398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127995848"/>
+        <c:axId val="-2091385976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +428,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128001304"/>
+        <c:crossAx val="-2131068136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,12 +746,12 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1020,6 +1054,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:F16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
